--- a/doc/ships.xlsx
+++ b/doc/ships.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\orders\space_game\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\orders\space_game\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6ECAEDF-CB1A-402C-AD00-14E05D85AB68}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86AFAA-D64D-49F9-80FD-358640A3286C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{3CC1E272-F19A-4A0E-B398-95E3943ADB56}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>

--- a/doc/ships.xlsx
+++ b/doc/ships.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\orders\space_game\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A86AFAA-D64D-49F9-80FD-358640A3286C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFFD59C-D8EF-4951-B1CA-8BF2048B5B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{3CC1E272-F19A-4A0E-B398-95E3943ADB56}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>name</t>
   </si>
@@ -73,6 +73,39 @@
   </si>
   <si>
     <t>4d10</t>
+  </si>
+  <si>
+    <t>+5</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>successful attack - [ (1d20 + bonus) &gt;= defend]</t>
+  </si>
+  <si>
+    <t>+0</t>
+  </si>
+  <si>
+    <t>+6</t>
+  </si>
+  <si>
+    <t>+3</t>
+  </si>
+  <si>
+    <t>+4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
 </sst>
 </file>
@@ -109,9 +142,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -428,10 +464,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF8FE52F-F5EC-4ACE-AFC6-0995ABD1D260}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -474,11 +510,11 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -494,11 +530,11 @@
       <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>16</v>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -514,11 +550,11 @@
       <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1">
-        <v>12</v>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -534,11 +570,11 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="1">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
-        <v>13</v>
+      <c r="D5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -554,14 +590,19 @@
       <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>14</v>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F6" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ships.xlsx
+++ b/doc/ships.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\orders\space_game\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFFD59C-D8EF-4951-B1CA-8BF2048B5B27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33362917-9B54-4310-AAA2-FA6370A4FF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" xr2:uid="{3CC1E272-F19A-4A0E-B398-95E3943ADB56}"/>
   </bookViews>
@@ -81,9 +81,6 @@
     <t>15</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>successful attack - [ (1d20 + bonus) &gt;= defend]</t>
   </si>
   <si>
@@ -105,7 +102,10 @@
     <t>14</t>
   </si>
   <si>
-    <t>10</t>
+    <t>18</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -467,7 +467,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -511,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2" s="1">
         <v>10</v>
@@ -531,10 +531,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -571,10 +571,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
